--- a/チーム資料/【微糖】卒業制作_議事録.xlsx
+++ b/チーム資料/【微糖】卒業制作_議事録.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3CFB56-DFB1-47C4-873B-F146A28E8EF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="807"/>
   </bookViews>
   <sheets>
-    <sheet name="チームレビュー議事録 (2019年11月12日)" sheetId="7" r:id="rId1"/>
+    <sheet name="チームレビュー議事録 (2020年1月14日) " sheetId="13" r:id="rId1"/>
+    <sheet name="チームレビュー議事録 (2019年12月10日) " sheetId="12" r:id="rId2"/>
+    <sheet name="チームレビュー議事録 (2019年12月3日) " sheetId="11" r:id="rId3"/>
+    <sheet name="チームレビュー議事録 (2019年11月26日) " sheetId="10" r:id="rId4"/>
+    <sheet name="チームレビュー議事録 (2019年11月19日) " sheetId="8" r:id="rId5"/>
+    <sheet name="チームレビュー議事録 (2019年11月12日)" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'チームレビュー議事録 (2019年11月12日)'!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'チームレビュー議事録 (2019年11月12日)'!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'チームレビュー議事録 (2019年11月19日) '!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'チームレビュー議事録 (2019年11月26日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'チームレビュー議事録 (2019年12月10日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'チームレビュー議事録 (2019年12月3日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'チームレビュー議事録 (2020年1月14日) '!$A$1:$D$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
   <si>
     <t>日時</t>
     <rPh sb="0" eb="2">
@@ -336,16 +345,421 @@
     <t>重川・玉井・宮島・山崎(崇)・山崎(瑞)</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>15%(ガントチャートより)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>山崎(崇)</t>
+  </si>
+  <si>
+    <t>要求仕様の洗い出し
+機能要件一覧の作成（画面側）</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウキュウシヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>外部・内部設計の役割分担
+データベース設計：重川・宮島
+画面設計：玉井・山﨑（崇）・（山﨑（瑞））
+各担当作業の開始</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヤクワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シゲカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミヤジマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タマイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヤマサキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヤマサキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>玉井</t>
+    <rPh sb="0" eb="2">
+      <t>タマイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>23%(ガントチャートより)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>使用技術の変更(CakePHP→Laravel)</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>玉井</t>
+  </si>
+  <si>
+    <t>37%(ガントチャートより)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各担当の作業
+データベース設計：重川・宮島
+画面設計：玉井・山﨑（崇）・（山﨑（瑞））</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シゲカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミヤジマ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タマイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヤマサキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヤマサキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ズイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>課題とリスクの更新。対応期限の追加。</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>タイオウキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各担当の作業。</t>
+    <rPh sb="0" eb="4">
+      <t>カクタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>構成管理についての確認。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+①</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>構成管理対象物は？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+構成管理一覧(テキストファイル)に記述。
+②</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管理ルールは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+担当者：重川
+テキストファイルに最新版の日付を記述。
+GitHubにてバージョン管理。
+ローカル、NAS上でも各成果物をフォルダ分けして管理。
+③</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>運用方法は？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+運用状況
+テキスト、ローカル、NASでの管理：○
+GitHubでの管理：×（全メンバーが利用できる環境が整っていない。）</t>
+    </r>
+    <rPh sb="54" eb="57">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シゲカワ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="134" eb="138">
+      <t>ウンヨウジョ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>41%(ガントチャートより)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>構成管理→メンバー全員がGitHubでの管理ができるように設定。
+運用方法：更新がある場合、宮島君の承認のもと更新を行う。</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ウンヨウホウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ミヤジマ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ガントチャートの見直し：開発期間の延長。
+→製作発表の予行演習に間に合うように調整。</t>
+    <rPh sb="8" eb="11">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>セイサクハッピョウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ヨコウエンシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各担当の作業。</t>
+    <rPh sb="0" eb="6">
+      <t>カクタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>56%(ガントチャートより)</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="###&quot;分&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +841,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -791,7 +1212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,17 +1303,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,24 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -941,6 +1362,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,6 +1379,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,23 +1495,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1096,23 +1530,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1288,11 +1705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1305,12 +1722,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1359,8 +1776,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <f ca="1">TODAY()</f>
-        <v>43781</v>
+        <v>43844</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -1394,7 +1810,7 @@
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -1416,7 +1832,7 @@
       <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="9"/>
@@ -1435,7 +1851,7 @@
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="10"/>
@@ -1473,10 +1889,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1485,17 +1901,17 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1504,17 +1920,13 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>9</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="38"/>
+    <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1523,13 +1935,17 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="56"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1538,17 +1954,17 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="40"/>
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="58"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1557,17 +1973,1601 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
+    <row r="15" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+      <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="231.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+      <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43802</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+      <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43795</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+      <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43788</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
     <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>1</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="31"/>
+      <c r="C15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="58"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1580,13 +3580,11 @@
       <c r="A16" s="19">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="31"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1600,8 +3598,8 @@
         <v>3</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1611,8 +3609,8 @@
         <v>4</v>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1674,11 +3672,421 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C15:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+      <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43781</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>1</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>2</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24">
+        <v>3</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>4</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A1:D1"/>
@@ -1687,10 +4095,15 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/チーム資料/【微糖】卒業制作_議事録.xlsx
+++ b/チーム資料/【微糖】卒業制作_議事録.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D211F8BD-B0FF-48C0-8A59-E310973618B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="807"/>
+    <workbookView xWindow="75" yWindow="270" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="チームレビュー議事録 (2020年1月14日) " sheetId="13" r:id="rId1"/>
-    <sheet name="チームレビュー議事録 (2019年12月10日) " sheetId="12" r:id="rId2"/>
-    <sheet name="チームレビュー議事録 (2019年12月3日) " sheetId="11" r:id="rId3"/>
-    <sheet name="チームレビュー議事録 (2019年11月26日) " sheetId="10" r:id="rId4"/>
-    <sheet name="チームレビュー議事録 (2019年11月19日) " sheetId="8" r:id="rId5"/>
-    <sheet name="チームレビュー議事録 (2019年11月12日)" sheetId="7" r:id="rId6"/>
+    <sheet name="チームレビュー議事録 (2020年1月21日)  " sheetId="14" r:id="rId1"/>
+    <sheet name="チームレビュー議事録 (2020年1月14日) " sheetId="13" r:id="rId2"/>
+    <sheet name="チームレビュー議事録 (2019年12月10日) " sheetId="12" r:id="rId3"/>
+    <sheet name="チームレビュー議事録 (2019年12月3日) " sheetId="11" r:id="rId4"/>
+    <sheet name="チームレビュー議事録 (2019年11月26日) " sheetId="10" r:id="rId5"/>
+    <sheet name="チームレビュー議事録 (2019年11月19日) " sheetId="8" r:id="rId6"/>
+    <sheet name="チームレビュー議事録 (2019年11月12日)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'チームレビュー議事録 (2019年11月12日)'!$A$1:$D$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'チームレビュー議事録 (2019年11月19日) '!$A$1:$D$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'チームレビュー議事録 (2019年11月26日) '!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'チームレビュー議事録 (2019年12月10日) '!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'チームレビュー議事録 (2019年12月3日) '!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'チームレビュー議事録 (2020年1月14日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'チームレビュー議事録 (2019年11月12日)'!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'チームレビュー議事録 (2019年11月19日) '!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'チームレビュー議事録 (2019年11月26日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'チームレビュー議事録 (2019年12月10日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'チームレビュー議事録 (2019年12月3日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'チームレビュー議事録 (2020年1月14日) '!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'チームレビュー議事録 (2020年1月21日)  '!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
   <si>
     <t>日時</t>
     <rPh sb="0" eb="2">
@@ -750,11 +745,22 @@
     <t>56%(ガントチャートより)</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>72%(ガントチャートより)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>特になし。</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="###&quot;分&quot;"/>
@@ -1212,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,6 +1338,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1370,33 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1495,6 +1507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1530,6 +1559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1705,11 +1751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF93AD12-477C-440E-9A56-47E5EAABE463}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1722,12 +1768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1756,10 +1802,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1776,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>43844</v>
+        <v>43851</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -1810,13 +1856,13 @@
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1832,8 +1878,8 @@
       <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>18</v>
+      <c r="C7" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="4"/>
@@ -1851,8 +1897,8 @@
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>24</v>
+      <c r="C8" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="4"/>
@@ -1870,10 +1916,10 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1889,10 +1935,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1908,10 +1954,10 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1921,12 +1967,12 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1942,10 +1988,10 @@
       <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="56"/>
+      <c r="C13" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="46"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1958,13 +2004,13 @@
       <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="58"/>
+      <c r="C14" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1977,13 +2023,11 @@
       <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="58"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1999,10 +2043,10 @@
       <c r="B16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2012,8 +2056,8 @@
         <v>4</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2090,7 +2134,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{57879E0C-6A35-4848-8891-C24699D6983C}">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2104,11 +2148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2121,12 +2165,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2155,10 +2199,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2175,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>43809</v>
+        <v>43844</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -2209,13 +2253,13 @@
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2231,7 +2275,7 @@
       <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="9"/>
@@ -2250,7 +2294,7 @@
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="10"/>
@@ -2269,10 +2313,10 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2288,10 +2332,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2307,10 +2351,10 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2320,12 +2364,12 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2341,10 +2385,10 @@
       <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="56"/>
+      <c r="C13" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="46"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2353,17 +2397,17 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="231.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="58"/>
+      <c r="C14" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2372,17 +2416,17 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="58"/>
+      <c r="C15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="48"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2395,9 +2439,13 @@
       <c r="A16" s="24">
         <v>3</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2407,8 +2455,8 @@
         <v>4</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2485,7 +2533,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2499,10 +2547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
@@ -2516,12 +2564,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2550,10 +2598,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2570,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>43802</v>
+        <v>43809</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -2604,13 +2652,13 @@
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2626,8 +2674,8 @@
       <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>36</v>
+      <c r="C7" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="4"/>
@@ -2645,8 +2693,8 @@
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>30</v>
+      <c r="C8" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="4"/>
@@ -2664,10 +2712,10 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2683,10 +2731,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2702,10 +2750,10 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2715,12 +2763,12 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2736,10 +2784,10 @@
       <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="56"/>
+      <c r="C13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="46"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2748,17 +2796,17 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="231.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="58"/>
+      <c r="C14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2771,13 +2819,13 @@
       <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="58"/>
+      <c r="C15" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="48"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2791,8 +2839,8 @@
         <v>3</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2802,8 +2850,8 @@
         <v>4</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2880,7 +2928,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2894,7 +2942,402 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43802</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2911,12 +3354,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2945,10 +3388,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3002,10 +3445,10 @@
       <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3059,10 +3502,10 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3078,10 +3521,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3097,10 +3540,10 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3110,12 +3553,12 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3131,10 +3574,10 @@
       <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3150,10 +3593,10 @@
       <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3169,10 +3612,10 @@
       <c r="B15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3186,8 +3629,8 @@
         <v>3</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3197,8 +3640,8 @@
         <v>4</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -3260,22 +3703,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3288,8 +3731,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3306,12 +3749,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3340,10 +3783,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3397,10 +3840,10 @@
       <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3454,10 +3897,10 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3473,10 +3916,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3492,10 +3935,10 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3511,10 +3954,10 @@
       <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3524,12 +3967,12 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3545,10 +3988,10 @@
       <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3564,10 +4007,10 @@
       <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3583,8 +4026,8 @@
       <c r="B16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3598,8 +4041,8 @@
         <v>3</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -3609,8 +4052,8 @@
         <v>4</v>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -3672,6 +4115,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:D13"/>
@@ -3679,16 +4128,10 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3701,8 +4144,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3719,12 +4162,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3753,10 +4196,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3810,10 +4253,10 @@
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3867,10 +4310,10 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3886,10 +4329,10 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3905,10 +4348,10 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3924,10 +4367,10 @@
       <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3937,12 +4380,12 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3958,10 +4401,10 @@
       <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3977,10 +4420,10 @@
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3996,10 +4439,10 @@
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -4013,8 +4456,8 @@
         <v>3</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -4024,8 +4467,8 @@
         <v>4</v>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -4103,7 +4546,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
